--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1502,28 +1502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.41486765342795</v>
+        <v>117.7777466347693</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.1319019276133</v>
+        <v>161.1487089330888</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.2393133928017</v>
+        <v>145.7689023261927</v>
       </c>
       <c r="AD2" t="n">
-        <v>83414.86765342795</v>
+        <v>117777.7466347693</v>
       </c>
       <c r="AE2" t="n">
-        <v>114131.9019276133</v>
+        <v>161148.7089330888</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.118889255433086e-06</v>
+        <v>5.938056065665682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.3828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>103239.3133928017</v>
+        <v>145768.9023261927</v>
       </c>
     </row>
     <row r="3">
@@ -1608,28 +1608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.21584075568369</v>
+        <v>108.1160336506849</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.491340428787</v>
+        <v>147.9291269835772</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.7553247808804</v>
+        <v>133.8109787241385</v>
       </c>
       <c r="AD3" t="n">
-        <v>82215.84075568369</v>
+        <v>108116.0336506849</v>
       </c>
       <c r="AE3" t="n">
-        <v>112491.340428787</v>
+        <v>147929.1269835772</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.283726987759981e-06</v>
+        <v>6.175696758481874e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.096354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>101755.3247808804</v>
+        <v>133810.9787241385</v>
       </c>
     </row>
   </sheetData>
@@ -1905,28 +1905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.22605820463784</v>
+        <v>103.8104115700779</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.0863909905797</v>
+        <v>142.0379849022535</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.91604069255921</v>
+        <v>128.4820789747846</v>
       </c>
       <c r="AD2" t="n">
-        <v>70226.05820463784</v>
+        <v>103810.4115700779</v>
       </c>
       <c r="AE2" t="n">
-        <v>96086.3909905797</v>
+        <v>142037.9849022535</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.622309286419607e-06</v>
+        <v>6.766886908883136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>86916.04069255921</v>
+        <v>128482.0789747846</v>
       </c>
     </row>
   </sheetData>
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.73713034891055</v>
+        <v>96.03908606018085</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.5221506790564</v>
+        <v>131.4049144929331</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.02389629848781</v>
+        <v>118.8638138817183</v>
       </c>
       <c r="AD2" t="n">
-        <v>72737.13034891055</v>
+        <v>96039.08606018085</v>
       </c>
       <c r="AE2" t="n">
-        <v>99522.1506790564</v>
+        <v>131404.9144929331</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.917537774483834e-06</v>
+        <v>7.608037923148991e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>90023.89629848782</v>
+        <v>118863.8138817183</v>
       </c>
     </row>
   </sheetData>
@@ -2499,28 +2499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.02843148781453</v>
+        <v>99.02895268022083</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.71125704728968</v>
+        <v>135.4957819060757</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.95846339227633</v>
+        <v>122.5642546505204</v>
       </c>
       <c r="AD2" t="n">
-        <v>67028.43148781452</v>
+        <v>99028.95268022083</v>
       </c>
       <c r="AE2" t="n">
-        <v>91711.25704728968</v>
+        <v>135495.7819060757</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.826039663297631e-06</v>
+        <v>7.293564634591163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>82958.46339227633</v>
+        <v>122564.2546505204</v>
       </c>
     </row>
   </sheetData>
@@ -2796,28 +2796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.12846324974086</v>
+        <v>101.3637097983051</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.32110138458988</v>
+        <v>138.6902995972515</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.03291205949239</v>
+        <v>125.4538920567851</v>
       </c>
       <c r="AD2" t="n">
-        <v>71128.46324974086</v>
+        <v>101363.7097983051</v>
       </c>
       <c r="AE2" t="n">
-        <v>97321.10138458989</v>
+        <v>138690.2995972515</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.837711266015074e-06</v>
+        <v>7.645944556681589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.526041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>88032.91205949239</v>
+        <v>125453.8920567851</v>
       </c>
     </row>
   </sheetData>
@@ -3093,28 +3093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.26709988105205</v>
+        <v>105.6897373469237</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.8249871917376</v>
+        <v>144.6093613401345</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.34344455452384</v>
+        <v>130.8080468543846</v>
       </c>
       <c r="AD2" t="n">
-        <v>80267.09988105205</v>
+        <v>105689.7373469238</v>
       </c>
       <c r="AE2" t="n">
-        <v>109824.9871917376</v>
+        <v>144609.3613401345</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.439172289970509e-06</v>
+        <v>6.471808415650471e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.018229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>99343.44455452384</v>
+        <v>130808.0468543846</v>
       </c>
     </row>
     <row r="3">
@@ -3199,28 +3199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.46641646781815</v>
+        <v>105.2778062230074</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.78350388700672</v>
+        <v>144.0457390032738</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.4511835160647</v>
+        <v>130.2982158423048</v>
       </c>
       <c r="AD3" t="n">
-        <v>71466.41646781816</v>
+        <v>105277.8062230074</v>
       </c>
       <c r="AE3" t="n">
-        <v>97783.50388700672</v>
+        <v>144045.7390032738</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.485619561895649e-06</v>
+        <v>6.539523256547338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.940104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>88451.1835160647</v>
+        <v>130298.2158423048</v>
       </c>
     </row>
   </sheetData>
@@ -3496,28 +3496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.49928808433494</v>
+        <v>107.5054162804102</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.46023616603264</v>
+        <v>147.0936533590306</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.25420660916207</v>
+        <v>133.0552415297238</v>
       </c>
       <c r="AD2" t="n">
-        <v>70499.28808433494</v>
+        <v>107505.4162804102</v>
       </c>
       <c r="AE2" t="n">
-        <v>96460.23616603264</v>
+        <v>147093.6533590306</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.680455751355166e-06</v>
+        <v>7.49918954185882e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>87254.20660916207</v>
+        <v>133055.2415297237</v>
       </c>
     </row>
   </sheetData>
@@ -3793,28 +3793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.9945053002949</v>
+        <v>101.8420157336145</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.40132597457898</v>
+        <v>139.3447388793101</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.39179591668147</v>
+        <v>126.0458725722755</v>
       </c>
       <c r="AD2" t="n">
-        <v>68994.5053002949</v>
+        <v>101842.0157336145</v>
       </c>
       <c r="AE2" t="n">
-        <v>94401.32597457898</v>
+        <v>139344.7388793101</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.698946244803904e-06</v>
+        <v>6.977198365274157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.888020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>85391.79591668147</v>
+        <v>126045.8725722755</v>
       </c>
     </row>
   </sheetData>
@@ -4090,28 +4090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.39032852924868</v>
+        <v>103.7390121612634</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.31115289580741</v>
+        <v>141.940293081194</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.11935163700736</v>
+        <v>128.3937107240156</v>
       </c>
       <c r="AD2" t="n">
-        <v>70390.32852924868</v>
+        <v>103739.0121612634</v>
       </c>
       <c r="AE2" t="n">
-        <v>96311.15289580741</v>
+        <v>141940.293081194</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.555035760450907e-06</v>
+        <v>6.697918076178141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.966145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>87119.35163700735</v>
+        <v>128393.7107240156</v>
       </c>
     </row>
   </sheetData>
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.1944186441183</v>
+        <v>107.9404937776565</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.4620297506664</v>
+        <v>147.6889455850273</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.7288114727418</v>
+        <v>133.5937199011694</v>
       </c>
       <c r="AD2" t="n">
-        <v>82194.4186441183</v>
+        <v>107940.4937776565</v>
       </c>
       <c r="AE2" t="n">
-        <v>112462.0297506664</v>
+        <v>147688.9455850273</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.243763623598492e-06</v>
+        <v>6.139760535409213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>101728.8114727418</v>
+        <v>133593.7199011694</v>
       </c>
     </row>
     <row r="3">
@@ -4493,28 +4493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.72489813572369</v>
+        <v>107.4709732692619</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.8196110772983</v>
+        <v>147.0465269116592</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.1477043359195</v>
+        <v>133.0126127643471</v>
       </c>
       <c r="AD3" t="n">
-        <v>81724.89813572369</v>
+        <v>107470.9732692619</v>
       </c>
       <c r="AE3" t="n">
-        <v>111819.6110772983</v>
+        <v>147046.5269116592</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.316865434201811e-06</v>
+        <v>6.245522225177559e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.096354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>101147.7043359195</v>
+        <v>133012.6127643471</v>
       </c>
     </row>
   </sheetData>
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.64013347517501</v>
+        <v>99.93802955339869</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.54821469278296</v>
+        <v>136.7396209895982</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.71554297476145</v>
+        <v>123.689383477651</v>
       </c>
       <c r="AD2" t="n">
-        <v>67640.13347517501</v>
+        <v>99938.02955339869</v>
       </c>
       <c r="AE2" t="n">
-        <v>92548.21469278296</v>
+        <v>136739.6209895982</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.80865676898632e-06</v>
+        <v>7.221085884161108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.888020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>83715.54297476145</v>
+        <v>123689.383477651</v>
       </c>
     </row>
   </sheetData>
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.52425943247596</v>
+        <v>97.09892491726799</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.5991354168744</v>
+        <v>132.8550327739895</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.99809512448637</v>
+        <v>120.1755349092849</v>
       </c>
       <c r="AD2" t="n">
-        <v>73524.25943247596</v>
+        <v>97098.924917268</v>
       </c>
       <c r="AE2" t="n">
-        <v>100599.1354168744</v>
+        <v>132855.0327739895</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.908059399768998e-06</v>
+        <v>7.527720147714101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>90998.09512448637</v>
+        <v>120175.5349092849</v>
       </c>
     </row>
   </sheetData>
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.04949021237971</v>
+        <v>102.5519383721527</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.58129110771358</v>
+        <v>140.3160863529341</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.17283104412894</v>
+        <v>126.9245160063119</v>
       </c>
       <c r="AD2" t="n">
-        <v>72049.49021237971</v>
+        <v>102551.9383721527</v>
       </c>
       <c r="AE2" t="n">
-        <v>98581.29110771358</v>
+        <v>140316.0863529341</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.870080410835894e-06</v>
+        <v>7.609404577814719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.330729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>89172.83104412894</v>
+        <v>126924.5160063119</v>
       </c>
     </row>
   </sheetData>
@@ -8310,28 +8310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.39579654545284</v>
+        <v>113.7692364867042</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.8963432950097</v>
+        <v>155.6640885055222</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.78974491741202</v>
+        <v>140.8077263745182</v>
       </c>
       <c r="AD2" t="n">
-        <v>77395.79654545285</v>
+        <v>113769.2364867042</v>
       </c>
       <c r="AE2" t="n">
-        <v>105896.3432950097</v>
+        <v>155664.0885055222</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.379663416510307e-06</v>
+        <v>7.13743294087889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>95789.74491741203</v>
+        <v>140807.7263745182</v>
       </c>
     </row>
   </sheetData>
@@ -8607,28 +8607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.69203729460786</v>
+        <v>102.7954789969206</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.35572002213722</v>
+        <v>140.6493093799953</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.25510393584152</v>
+        <v>127.225936695352</v>
       </c>
       <c r="AD2" t="n">
-        <v>69692.03729460786</v>
+        <v>102795.4789969206</v>
       </c>
       <c r="AE2" t="n">
-        <v>95355.72002213722</v>
+        <v>140649.3093799953</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.629829536337696e-06</v>
+        <v>6.840021286335545e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>86255.10393584151</v>
+        <v>127225.936695352</v>
       </c>
     </row>
   </sheetData>
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.08790173157237</v>
+        <v>106.674939762243</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.9480444948409</v>
+        <v>145.9573587488366</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.3593188448401</v>
+        <v>132.0273932823268</v>
       </c>
       <c r="AD2" t="n">
-        <v>81087.90173157238</v>
+        <v>106674.939762243</v>
       </c>
       <c r="AE2" t="n">
-        <v>110948.0444948409</v>
+        <v>145957.3587488366</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.358537209860598e-06</v>
+        <v>6.329332689624824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>100359.3188448401</v>
+        <v>132027.3932823268</v>
       </c>
     </row>
     <row r="3">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.00884256048637</v>
+        <v>106.595880591157</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.8398722491166</v>
+        <v>145.8491865031124</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.2614704064271</v>
+        <v>131.9295448439138</v>
       </c>
       <c r="AD3" t="n">
-        <v>81008.84256048637</v>
+        <v>106595.880591157</v>
       </c>
       <c r="AE3" t="n">
-        <v>110839.8722491166</v>
+        <v>145849.1865031124</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.372154673165954e-06</v>
+        <v>6.349107547908325e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.0703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>100261.470406427</v>
+        <v>131929.5448439138</v>
       </c>
     </row>
   </sheetData>
@@ -9307,28 +9307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.90238132529386</v>
+        <v>134.5110242922883</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.7448925761308</v>
+        <v>184.0439176442042</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.7439765127631</v>
+        <v>166.4790244515537</v>
       </c>
       <c r="AD2" t="n">
-        <v>91902.38132529386</v>
+        <v>134511.0242922883</v>
       </c>
       <c r="AE2" t="n">
-        <v>125744.8925761307</v>
+        <v>184043.9176442042</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.740593605865714e-06</v>
+        <v>6.235346679995349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.61197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>113743.9765127631</v>
+        <v>166479.0244515537</v>
       </c>
     </row>
   </sheetData>
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.41536076427414</v>
+        <v>98.24307320027248</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.8183795716563</v>
+        <v>134.4205069310552</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.10097632835617</v>
+        <v>121.5916024099576</v>
       </c>
       <c r="AD2" t="n">
-        <v>74415.36076427414</v>
+        <v>98243.07320027248</v>
       </c>
       <c r="AE2" t="n">
-        <v>101818.3795716563</v>
+        <v>134420.5069310552</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.859748145185734e-06</v>
+        <v>7.39608288205861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.005208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>92100.97632835616</v>
+        <v>121591.6024099576</v>
       </c>
     </row>
   </sheetData>
@@ -9901,28 +9901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.31602905028281</v>
+        <v>100.8955728078355</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.47300483705328</v>
+        <v>138.049773914145</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.552072445614</v>
+        <v>124.8744972458906</v>
       </c>
       <c r="AD2" t="n">
-        <v>68316.02905028281</v>
+        <v>100895.5728078355</v>
       </c>
       <c r="AE2" t="n">
-        <v>93473.00483705327</v>
+        <v>138049.773914145</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.74857688338778e-06</v>
+        <v>7.089201210592201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>84552.072445614</v>
+        <v>124874.4972458906</v>
       </c>
     </row>
   </sheetData>
